--- a/data/rice/export_th/ex2546.xlsx
+++ b/data/rice/export_th/ex2546.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piyayut.chi\Documents\github\price_transmission\data\rice\export_th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E637852-B7C5-4354-82A5-668D2C3B6231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDDB12B-72C8-4EB4-BC0F-582406D059E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="723" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="723" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ราคา FOB" sheetId="12" r:id="rId1"/>
@@ -391,18 +391,6 @@
     <t>RWXSA1FU</t>
   </si>
   <si>
-    <t>RGWB10LU</t>
-  </si>
-  <si>
-    <t>RGWS10LU</t>
-  </si>
-  <si>
-    <t>RGWB10SU</t>
-  </si>
-  <si>
-    <t>RGWS10SU</t>
-  </si>
-  <si>
     <t>RGXBA1FU</t>
   </si>
   <si>
@@ -497,6 +485,18 @@
   </si>
   <si>
     <t>RFXSA1EO</t>
+  </si>
+  <si>
+    <t>RGXB10LU</t>
+  </si>
+  <si>
+    <t>RGXS10LU</t>
+  </si>
+  <si>
+    <t>RGXB10SU</t>
+  </si>
+  <si>
+    <t>RGXS10SU</t>
   </si>
 </sst>
 </file>
@@ -13508,8 +13508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -14330,7 +14330,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -14362,7 +14362,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -14387,7 +14387,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -14419,7 +14419,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -14639,7 +14639,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -14671,7 +14671,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -14696,7 +14696,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -14710,7 +14710,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -14736,7 +14736,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -14768,7 +14768,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -14805,7 +14805,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -14819,7 +14819,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -14833,7 +14833,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -14865,7 +14865,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -14890,7 +14890,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -14922,7 +14922,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -14961,7 +14961,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -14975,7 +14975,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -15007,7 +15007,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -15044,7 +15044,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -15058,7 +15058,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -15084,7 +15084,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -15116,7 +15116,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -15141,7 +15141,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -15173,7 +15173,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -15198,7 +15198,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -15255,7 +15255,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -15287,7 +15287,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -15312,7 +15312,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -15344,7 +15344,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -15369,7 +15369,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -15401,7 +15401,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -15438,7 +15438,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -15470,7 +15470,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
@@ -15549,8 +15549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -16394,7 +16394,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -16426,7 +16426,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -16453,7 +16453,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -16485,7 +16485,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -16713,7 +16713,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -16745,7 +16745,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -16772,7 +16772,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -16786,7 +16786,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -16812,7 +16812,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -16844,7 +16844,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -16883,7 +16883,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -16897,7 +16897,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -16911,7 +16911,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -16943,7 +16943,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -16970,7 +16970,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -17002,7 +17002,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -17029,7 +17029,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -17043,7 +17043,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -17057,7 +17057,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -17089,7 +17089,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -17128,7 +17128,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>55</v>
@@ -17142,7 +17142,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -17168,7 +17168,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -17200,7 +17200,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -17227,7 +17227,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -17259,7 +17259,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -17286,7 +17286,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -17318,7 +17318,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -17345,7 +17345,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -17377,7 +17377,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -17404,7 +17404,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -17436,7 +17436,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -17477,7 +17477,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -17503,7 +17503,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -17535,7 +17535,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
@@ -17613,8 +17613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A44" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -18456,7 +18456,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -18488,7 +18488,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -18515,7 +18515,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -18547,7 +18547,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -18775,7 +18775,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -18807,7 +18807,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -18834,7 +18834,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -18848,7 +18848,7 @@
     </row>
     <row r="52" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -18874,7 +18874,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -18906,7 +18906,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -18945,7 +18945,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -18959,7 +18959,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -18973,7 +18973,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -19005,7 +19005,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -19032,7 +19032,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -19091,7 +19091,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -19105,7 +19105,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -19151,7 +19151,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -19190,7 +19190,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -19204,7 +19204,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -19230,7 +19230,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>46</v>
@@ -19262,7 +19262,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>8</v>
@@ -19289,7 +19289,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>47</v>
@@ -19321,7 +19321,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>8</v>
@@ -19348,7 +19348,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>48</v>
@@ -19380,7 +19380,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>8</v>
@@ -19407,7 +19407,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>49</v>
@@ -19439,7 +19439,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>8</v>
@@ -19466,7 +19466,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>50</v>
@@ -19498,7 +19498,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>8</v>
@@ -19525,7 +19525,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -19539,7 +19539,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -19565,7 +19565,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>53</v>
@@ -19597,7 +19597,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>8</v>
@@ -19675,8 +19675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -20494,7 +20494,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -20526,7 +20526,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -20551,7 +20551,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -20583,7 +20583,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -20803,7 +20803,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -20835,7 +20835,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -20860,7 +20860,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -20874,7 +20874,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -20900,7 +20900,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -20932,7 +20932,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -20969,7 +20969,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -21001,7 +21001,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -21026,7 +21026,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -21058,7 +21058,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -21083,7 +21083,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -21115,7 +21115,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -21140,7 +21140,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -21154,7 +21154,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -21168,7 +21168,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -21200,7 +21200,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -21237,7 +21237,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -21269,7 +21269,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -21306,7 +21306,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -21338,7 +21338,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -21363,7 +21363,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -21395,7 +21395,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -21420,7 +21420,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -21452,7 +21452,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -21477,7 +21477,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -21509,7 +21509,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -21534,7 +21534,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -21566,7 +21566,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -21591,7 +21591,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -21605,7 +21605,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -21631,7 +21631,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -21663,7 +21663,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
@@ -21739,8 +21739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -22585,7 +22585,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="72" t="s">
         <v>24</v>
@@ -22617,7 +22617,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="73" t="s">
         <v>25</v>
@@ -22644,7 +22644,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="74" t="s">
         <v>26</v>
@@ -22676,7 +22676,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="73" t="s">
         <v>27</v>
@@ -22902,7 +22902,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="72" t="s">
         <v>33</v>
@@ -22934,7 +22934,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="73" t="s">
         <v>8</v>
@@ -22961,7 +22961,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="74" t="s">
         <v>34</v>
@@ -22990,7 +22990,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="73" t="s">
         <v>8</v>
@@ -23026,7 +23026,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="72" t="s">
         <v>36</v>
@@ -23058,7 +23058,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="73" t="s">
         <v>8</v>
@@ -23096,7 +23096,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="72" t="s">
         <v>38</v>
@@ -23128,7 +23128,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="73" t="s">
         <v>8</v>
@@ -23155,7 +23155,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="72" t="s">
         <v>39</v>
@@ -23187,7 +23187,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="73" t="s">
         <v>8</v>
@@ -23214,7 +23214,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="74" t="s">
         <v>40</v>
@@ -23246,7 +23246,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="73" t="s">
         <v>8</v>
@@ -23273,7 +23273,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="74" t="s">
         <v>41</v>
@@ -23287,7 +23287,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="73" t="s">
         <v>8</v>
@@ -23301,7 +23301,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="74" t="s">
         <v>42</v>
@@ -23333,7 +23333,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="73" t="s">
         <v>8</v>
@@ -23371,7 +23371,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="72" t="s">
         <v>44</v>
@@ -23403,7 +23403,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="73" t="s">
         <v>8</v>
@@ -23441,7 +23441,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="72" t="s">
         <v>46</v>
@@ -23473,7 +23473,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="72" t="s">
         <v>8</v>
@@ -23500,7 +23500,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="74" t="s">
         <v>47</v>
@@ -23532,7 +23532,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="73" t="s">
         <v>8</v>
@@ -23559,7 +23559,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="74" t="s">
         <v>48</v>
@@ -23591,7 +23591,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="73" t="s">
         <v>8</v>
@@ -23618,7 +23618,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="74" t="s">
         <v>49</v>
@@ -23650,7 +23650,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="73" t="s">
         <v>8</v>
@@ -23677,7 +23677,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="74" t="s">
         <v>50</v>
@@ -23709,7 +23709,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="73" t="s">
         <v>8</v>
@@ -23736,7 +23736,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="74" t="s">
         <v>51</v>
@@ -23750,7 +23750,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="73" t="s">
         <v>8</v>
@@ -23775,7 +23775,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="72" t="s">
         <v>53</v>
@@ -23807,7 +23807,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="73" t="s">
         <v>8</v>
@@ -23887,8 +23887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -24678,7 +24678,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -24707,7 +24707,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -24732,7 +24732,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -24761,7 +24761,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -24970,7 +24970,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -24999,7 +24999,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -25024,7 +25024,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -25038,7 +25038,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -25063,7 +25063,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -25092,7 +25092,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -25128,7 +25128,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -25142,7 +25142,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -25156,7 +25156,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -25185,7 +25185,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -25210,7 +25210,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -25239,7 +25239,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -25264,7 +25264,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -25293,7 +25293,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -25318,7 +25318,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -25347,7 +25347,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -25383,7 +25383,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -25397,7 +25397,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -25422,7 +25422,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -25451,7 +25451,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -25476,7 +25476,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -25505,7 +25505,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -25530,7 +25530,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -25559,7 +25559,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -25584,7 +25584,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -25613,7 +25613,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -25638,7 +25638,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -25667,7 +25667,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -25692,7 +25692,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -25721,7 +25721,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -25786,7 +25786,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
@@ -25862,8 +25862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -26733,7 +26733,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>29</v>
@@ -26763,7 +26763,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -26789,7 +26789,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -26819,7 +26819,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -27030,7 +27030,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -27059,7 +27059,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -27084,7 +27084,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -27098,7 +27098,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -27124,7 +27124,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -27153,7 +27153,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -27190,7 +27190,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -27204,7 +27204,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -27218,7 +27218,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -27247,7 +27247,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -27272,7 +27272,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -27301,7 +27301,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -27326,7 +27326,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -27355,7 +27355,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -27380,7 +27380,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -27409,7 +27409,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -27446,7 +27446,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -27460,7 +27460,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -27486,7 +27486,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -27515,7 +27515,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -27540,7 +27540,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -27569,7 +27569,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -27594,7 +27594,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -27623,7 +27623,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -27648,7 +27648,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -27677,7 +27677,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -27702,7 +27702,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -27731,7 +27731,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -27756,7 +27756,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -27785,7 +27785,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -27822,7 +27822,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -27851,7 +27851,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
@@ -27943,8 +27943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -28788,7 +28788,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -28820,7 +28820,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -28847,7 +28847,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -28879,7 +28879,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -29107,7 +29107,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -29139,7 +29139,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -29166,7 +29166,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -29180,7 +29180,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -29206,7 +29206,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -29238,7 +29238,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -29277,7 +29277,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -29291,7 +29291,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -29305,7 +29305,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -29337,7 +29337,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -29364,7 +29364,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -29396,7 +29396,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -29423,7 +29423,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -29455,7 +29455,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -29482,7 +29482,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -29514,7 +29514,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -29553,7 +29553,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -29567,7 +29567,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -29593,7 +29593,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -29625,7 +29625,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -29652,7 +29652,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -29684,7 +29684,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -29711,7 +29711,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -29743,7 +29743,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -29770,7 +29770,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -29802,7 +29802,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -29829,7 +29829,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -29861,7 +29861,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -29888,7 +29888,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -29920,7 +29920,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -29959,7 +29959,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -29991,7 +29991,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
@@ -30070,7 +30070,7 @@
   <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A49" sqref="A49:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -30864,7 +30864,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -30893,7 +30893,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -30918,7 +30918,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -30947,7 +30947,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -31158,7 +31158,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -31187,7 +31187,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -31212,7 +31212,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -31226,7 +31226,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -31252,7 +31252,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -31281,7 +31281,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -31318,7 +31318,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -31332,7 +31332,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -31346,7 +31346,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -31375,7 +31375,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -31400,7 +31400,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -31429,7 +31429,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -31454,7 +31454,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -31483,7 +31483,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -31508,7 +31508,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -31537,7 +31537,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -31574,7 +31574,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -31588,7 +31588,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -31614,7 +31614,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -31643,7 +31643,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -31668,7 +31668,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -31697,7 +31697,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -31722,7 +31722,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -31751,7 +31751,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -31776,7 +31776,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -31805,7 +31805,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -31830,7 +31830,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -31859,7 +31859,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -31884,7 +31884,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -31913,7 +31913,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -31950,7 +31950,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -31979,7 +31979,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
@@ -32055,8 +32055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -32859,7 +32859,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -32888,7 +32888,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -32913,7 +32913,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -32942,7 +32942,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -33153,7 +33153,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -33182,7 +33182,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -33207,7 +33207,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -33221,7 +33221,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -33247,7 +33247,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -33276,7 +33276,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -33313,7 +33313,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -33327,7 +33327,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -33341,7 +33341,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -33370,7 +33370,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -33395,7 +33395,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -33424,7 +33424,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -33449,7 +33449,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -33478,7 +33478,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -33503,7 +33503,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -33532,7 +33532,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -33569,7 +33569,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -33583,7 +33583,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -33609,7 +33609,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -33638,7 +33638,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -33663,7 +33663,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -33692,7 +33692,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -33717,7 +33717,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -33746,7 +33746,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -33771,7 +33771,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -33800,7 +33800,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -33825,7 +33825,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -33854,7 +33854,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -33879,7 +33879,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -33908,7 +33908,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -33945,7 +33945,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -33974,7 +33974,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
@@ -34050,8 +34050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -34897,7 +34897,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -34929,7 +34929,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -34956,7 +34956,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -34988,7 +34988,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -35219,7 +35219,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -35251,7 +35251,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -35278,7 +35278,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -35292,7 +35292,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -35318,7 +35318,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -35350,7 +35350,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -35389,7 +35389,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -35403,7 +35403,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -35417,7 +35417,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -35449,7 +35449,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -35476,7 +35476,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -35508,7 +35508,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -35535,7 +35535,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -35564,7 +35564,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -35589,7 +35589,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -35621,7 +35621,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -35660,7 +35660,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -35674,7 +35674,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -35700,7 +35700,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -35732,7 +35732,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -35759,7 +35759,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -35791,7 +35791,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -35818,7 +35818,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -35850,7 +35850,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -35877,7 +35877,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -35909,7 +35909,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -35936,7 +35936,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -35968,7 +35968,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -35995,7 +35995,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -36027,7 +36027,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -36066,7 +36066,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -36098,7 +36098,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
@@ -36179,8 +36179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -36972,7 +36972,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A37" s="42" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>24</v>
@@ -37001,7 +37001,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A38" s="42" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>8</v>
@@ -37026,7 +37026,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A39" s="42" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>26</v>
@@ -37055,7 +37055,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A40" s="42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B40" s="15" t="s">
         <v>8</v>
@@ -37266,7 +37266,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A49" s="42" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>33</v>
@@ -37295,7 +37295,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A50" s="42" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="B50" s="15" t="s">
         <v>8</v>
@@ -37320,7 +37320,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A51" s="42" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>34</v>
@@ -37334,7 +37334,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A52" s="42" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="B52" s="15" t="s">
         <v>8</v>
@@ -37360,7 +37360,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A54" s="42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>36</v>
@@ -37389,7 +37389,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A55" s="42" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B55" s="15" t="s">
         <v>8</v>
@@ -37426,7 +37426,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A57" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>38</v>
@@ -37440,7 +37440,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A58" s="42" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B58" s="15" t="s">
         <v>8</v>
@@ -37454,7 +37454,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A59" s="42" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>39</v>
@@ -37483,7 +37483,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A60" s="42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>8</v>
@@ -37508,7 +37508,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A61" s="42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>40</v>
@@ -37537,7 +37537,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A62" s="42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>8</v>
@@ -37562,7 +37562,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A63" s="42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>41</v>
@@ -37576,7 +37576,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A64" s="42" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B64" s="15" t="s">
         <v>8</v>
@@ -37590,7 +37590,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A65" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>42</v>
@@ -37619,7 +37619,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A66" s="42" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B66" s="15" t="s">
         <v>8</v>
@@ -37656,7 +37656,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A68" s="42" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>44</v>
@@ -37670,7 +37670,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A69" s="42" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B69" s="15" t="s">
         <v>8</v>
@@ -37696,7 +37696,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A71" s="42" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>46</v>
@@ -37725,7 +37725,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A72" s="42" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>8</v>
@@ -37750,7 +37750,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A73" s="42" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -37779,7 +37779,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A74" s="42" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B74" s="15" t="s">
         <v>8</v>
@@ -37804,7 +37804,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A75" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>48</v>
@@ -37833,7 +37833,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A76" s="42" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" s="15" t="s">
         <v>8</v>
@@ -37858,7 +37858,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A77" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>49</v>
@@ -37887,7 +37887,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A78" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" s="15" t="s">
         <v>8</v>
@@ -37912,7 +37912,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A79" s="42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>50</v>
@@ -37941,7 +37941,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A80" s="42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B80" s="15" t="s">
         <v>8</v>
@@ -37979,7 +37979,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A81" s="42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>51</v>
@@ -37993,7 +37993,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A82" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B82" s="15" t="s">
         <v>8</v>
@@ -38019,7 +38019,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A84" s="42" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>53</v>
@@ -38048,7 +38048,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.6">
       <c r="A85" s="42" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B85" s="15" t="s">
         <v>8</v>
